--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1694.831620241177</v>
+        <v>1858.865608355364</v>
       </c>
       <c r="AB2" t="n">
-        <v>2318.943393508013</v>
+        <v>2543.38193271466</v>
       </c>
       <c r="AC2" t="n">
-        <v>2097.626690689102</v>
+        <v>2300.645130715335</v>
       </c>
       <c r="AD2" t="n">
-        <v>1694831.620241178</v>
+        <v>1858865.608355364</v>
       </c>
       <c r="AE2" t="n">
-        <v>2318943.393508013</v>
+        <v>2543381.93271466</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.081005269691777e-07</v>
+        <v>1.165009772842851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.6099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2097626.690689102</v>
+        <v>2300645.130715335</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.099265378501</v>
+        <v>1132.881073660698</v>
       </c>
       <c r="AB3" t="n">
-        <v>1384.798865559168</v>
+        <v>1550.057864168184</v>
       </c>
       <c r="AC3" t="n">
-        <v>1252.635605407615</v>
+        <v>1402.122517131848</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012099.265378501</v>
+        <v>1132881.073660698</v>
       </c>
       <c r="AE3" t="n">
-        <v>1384798.865559168</v>
+        <v>1550057.864168184</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137338338340451e-06</v>
+        <v>1.639660209312067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.72453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1252635.605407615</v>
+        <v>1402122.517131848</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>854.0927544836418</v>
+        <v>966.1558541157838</v>
       </c>
       <c r="AB4" t="n">
-        <v>1168.607386597532</v>
+        <v>1321.937063389264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1057.077137771431</v>
+        <v>1195.773245409713</v>
       </c>
       <c r="AD4" t="n">
-        <v>854092.7544836418</v>
+        <v>966155.8541157838</v>
       </c>
       <c r="AE4" t="n">
-        <v>1168607.386597532</v>
+        <v>1321937.063389264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267373881641658e-06</v>
+        <v>1.827127824673014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.98148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1057077.137771431</v>
+        <v>1195773.245409713</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>784.059375669584</v>
+        <v>887.5744483608142</v>
       </c>
       <c r="AB5" t="n">
-        <v>1072.784628049522</v>
+        <v>1214.418517268364</v>
       </c>
       <c r="AC5" t="n">
-        <v>970.399568811157</v>
+        <v>1098.516118427365</v>
       </c>
       <c r="AD5" t="n">
-        <v>784059.375669584</v>
+        <v>887574.4483608142</v>
       </c>
       <c r="AE5" t="n">
-        <v>1072784.628049522</v>
+        <v>1214418.517268364</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334597425836144e-06</v>
+        <v>1.924041616135863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.77199074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>970399.568811157</v>
+        <v>1098516.118427365</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>745.9227743056757</v>
+        <v>840.8045687099736</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020.604447595313</v>
+        <v>1150.425904588617</v>
       </c>
       <c r="AC6" t="n">
-        <v>923.1993915441547</v>
+        <v>1040.630870887577</v>
       </c>
       <c r="AD6" t="n">
-        <v>745922.7743056758</v>
+        <v>840804.5687099736</v>
       </c>
       <c r="AE6" t="n">
-        <v>1020604.447595313</v>
+        <v>1150425.904588617</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377820064017442e-06</v>
+        <v>1.986354155490491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>923199.3915441546</v>
+        <v>1040630.870887577</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>705.6515382222573</v>
+        <v>800.6185839725756</v>
       </c>
       <c r="AB7" t="n">
-        <v>965.5035657444331</v>
+        <v>1095.441667390387</v>
       </c>
       <c r="AC7" t="n">
-        <v>873.357260522549</v>
+        <v>990.8942521166839</v>
       </c>
       <c r="AD7" t="n">
-        <v>705651.5382222573</v>
+        <v>800618.5839725756</v>
       </c>
       <c r="AE7" t="n">
-        <v>965503.5657444331</v>
+        <v>1095441.667390387</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40833325087447e-06</v>
+        <v>2.030343931146675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.57986111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>873357.260522549</v>
+        <v>990894.2521166839</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.7281272718711</v>
+        <v>771.5245808215973</v>
       </c>
       <c r="AB8" t="n">
-        <v>925.9292788712802</v>
+        <v>1055.633968742387</v>
       </c>
       <c r="AC8" t="n">
-        <v>837.5598880457092</v>
+        <v>954.8857443571928</v>
       </c>
       <c r="AD8" t="n">
-        <v>676728.1272718711</v>
+        <v>771524.5808215973</v>
       </c>
       <c r="AE8" t="n">
-        <v>925929.2788712801</v>
+        <v>1055633.968742386</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431231270615716e-06</v>
+        <v>2.063355191363708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>837559.8880457091</v>
+        <v>954885.7443571929</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>648.0772831811084</v>
+        <v>742.9589880768552</v>
       </c>
       <c r="AB9" t="n">
-        <v>886.7279300002649</v>
+        <v>1016.549264524021</v>
       </c>
       <c r="AC9" t="n">
-        <v>802.0998608915052</v>
+        <v>919.5312294537008</v>
       </c>
       <c r="AD9" t="n">
-        <v>648077.2831811084</v>
+        <v>742958.9880768552</v>
       </c>
       <c r="AE9" t="n">
-        <v>886727.9300002649</v>
+        <v>1016549.264524021</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44756449111922e-06</v>
+        <v>2.086902214133196e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.99537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>802099.8608915051</v>
+        <v>919531.2294537008</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>641.2836120017606</v>
+        <v>736.1653168975075</v>
       </c>
       <c r="AB10" t="n">
-        <v>877.4325293770619</v>
+        <v>1007.253863900818</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.6916002576039</v>
+        <v>911.1229688197998</v>
       </c>
       <c r="AD10" t="n">
-        <v>641283.6120017606</v>
+        <v>736165.3168975075</v>
       </c>
       <c r="AE10" t="n">
-        <v>877432.5293770619</v>
+        <v>1007253.863900818</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.451923517813082e-06</v>
+        <v>2.093186467798366e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.93171296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>793691.6002576039</v>
+        <v>911122.9688197998</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>643.72152870421</v>
+        <v>738.6032335999569</v>
       </c>
       <c r="AB11" t="n">
-        <v>880.7681945626473</v>
+        <v>1010.589529086403</v>
       </c>
       <c r="AC11" t="n">
-        <v>796.7089142395125</v>
+        <v>914.1402828017082</v>
       </c>
       <c r="AD11" t="n">
-        <v>643721.52870421</v>
+        <v>738603.2335999568</v>
       </c>
       <c r="AE11" t="n">
-        <v>880768.1945626473</v>
+        <v>1010589.529086403</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.451240778692356e-06</v>
+        <v>2.092202187103821e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.94328703703703</v>
       </c>
       <c r="AH11" t="n">
-        <v>796708.9142395125</v>
+        <v>914140.2828017082</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1274.831434829346</v>
+        <v>1417.842294409826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1744.280610727084</v>
+        <v>1939.95437799894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1577.808917352503</v>
+        <v>1754.807854905791</v>
       </c>
       <c r="AD2" t="n">
-        <v>1274831.434829346</v>
+        <v>1417842.294409826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1744280.610727084</v>
+        <v>1939954.37799894</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.573408898175803e-07</v>
+        <v>1.401511048531129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.84143518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>1577808.917352503</v>
+        <v>1754807.854905791</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.9580862190716</v>
+        <v>941.2992515795391</v>
       </c>
       <c r="AB3" t="n">
-        <v>1138.321756965302</v>
+        <v>1287.927163203264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1029.681926125153</v>
+        <v>1165.00920236427</v>
       </c>
       <c r="AD3" t="n">
-        <v>831958.0862190715</v>
+        <v>941299.2515795392</v>
       </c>
       <c r="AE3" t="n">
-        <v>1138321.756965302</v>
+        <v>1287927.163203264</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262292618694833e-06</v>
+        <v>1.847948907642713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.90740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1029681.926125153</v>
+        <v>1165009.20236427</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>719.6413813157166</v>
+        <v>820.5651231211812</v>
       </c>
       <c r="AB4" t="n">
-        <v>984.6450862532225</v>
+        <v>1122.73340223271</v>
       </c>
       <c r="AC4" t="n">
-        <v>890.6719411792724</v>
+        <v>1015.581302089846</v>
       </c>
       <c r="AD4" t="n">
-        <v>719641.3813157165</v>
+        <v>820565.1231211812</v>
       </c>
       <c r="AE4" t="n">
-        <v>984645.0862532225</v>
+        <v>1122733.40223271</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378394853615676e-06</v>
+        <v>2.017918211922324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.80671296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>890671.9411792724</v>
+        <v>1015581.302089846</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>661.4917753502168</v>
+        <v>762.3301763011099</v>
       </c>
       <c r="AB5" t="n">
-        <v>905.0822299916658</v>
+        <v>1043.053778848956</v>
       </c>
       <c r="AC5" t="n">
-        <v>818.7024522521486</v>
+        <v>943.5061901307838</v>
       </c>
       <c r="AD5" t="n">
-        <v>661491.7753502168</v>
+        <v>762330.1763011098</v>
       </c>
       <c r="AE5" t="n">
-        <v>905082.2299916658</v>
+        <v>1043053.778848956</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.437722715353421e-06</v>
+        <v>2.104771969654347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.86921296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>818702.4522521487</v>
+        <v>943506.1901307838</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>623.9106951161106</v>
+        <v>716.3317620205518</v>
       </c>
       <c r="AB6" t="n">
-        <v>853.662138055115</v>
+        <v>980.1167191234797</v>
       </c>
       <c r="AC6" t="n">
-        <v>772.1898217214698</v>
+        <v>886.5757550527888</v>
       </c>
       <c r="AD6" t="n">
-        <v>623910.6951161106</v>
+        <v>716331.7620205517</v>
       </c>
       <c r="AE6" t="n">
-        <v>853662.138055115</v>
+        <v>980116.7191234797</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.477437611809731e-06</v>
+        <v>2.162913084033568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.27893518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>772189.8217214698</v>
+        <v>886575.7550527889</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>589.3954323735833</v>
+        <v>681.901750624045</v>
       </c>
       <c r="AB7" t="n">
-        <v>806.4368328648643</v>
+        <v>933.0080585858781</v>
       </c>
       <c r="AC7" t="n">
-        <v>729.4716333774445</v>
+        <v>843.9630789594758</v>
       </c>
       <c r="AD7" t="n">
-        <v>589395.4323735833</v>
+        <v>681901.750624045</v>
       </c>
       <c r="AE7" t="n">
-        <v>806436.8328648643</v>
+        <v>933008.0585858781</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.497702531615756e-06</v>
+        <v>2.192580164284525e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.99537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>729471.6333774445</v>
+        <v>843963.0789594757</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>592.37719774824</v>
+        <v>684.8835159987016</v>
       </c>
       <c r="AB8" t="n">
-        <v>810.5166157966736</v>
+        <v>937.0878415176876</v>
       </c>
       <c r="AC8" t="n">
-        <v>733.1620475522533</v>
+        <v>847.6534931342844</v>
       </c>
       <c r="AD8" t="n">
-        <v>592377.19774824</v>
+        <v>684883.5159987016</v>
       </c>
       <c r="AE8" t="n">
-        <v>810516.6157966736</v>
+        <v>937087.8415176875</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.499332417927232e-06</v>
+        <v>2.19496625652991e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.97222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>733162.0475522532</v>
+        <v>847653.4931342844</v>
       </c>
     </row>
     <row r="9">
@@ -5220,28 +5220,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>594.5531968969125</v>
+        <v>687.0595151473741</v>
       </c>
       <c r="AB9" t="n">
-        <v>813.4939138301946</v>
+        <v>940.0651395512086</v>
       </c>
       <c r="AC9" t="n">
-        <v>735.8551964401189</v>
+        <v>850.3466420221504</v>
       </c>
       <c r="AD9" t="n">
-        <v>594553.1968969125</v>
+        <v>687059.5151473741</v>
       </c>
       <c r="AE9" t="n">
-        <v>813493.9138301946</v>
+        <v>940065.1395512086</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.499006440664937e-06</v>
+        <v>2.194489038080834e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.97222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>735855.1964401189</v>
+        <v>850346.6420221503</v>
       </c>
     </row>
   </sheetData>
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.2951062220512</v>
+        <v>705.0139267120054</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.8232239515562</v>
+        <v>964.6311575466721</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.9123759113022</v>
+        <v>872.5681137387496</v>
       </c>
       <c r="AD2" t="n">
-        <v>604295.1062220512</v>
+        <v>705013.9267120054</v>
       </c>
       <c r="AE2" t="n">
-        <v>826823.2239515563</v>
+        <v>964631.157546672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432359850117207e-06</v>
+        <v>2.216037488483057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>747912.3759113022</v>
+        <v>872568.1137387496</v>
       </c>
     </row>
     <row r="3">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.278890318183</v>
+        <v>562.7190663948214</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.0340337919176</v>
+        <v>769.9370520545149</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.7093821458392</v>
+        <v>696.4553404198708</v>
       </c>
       <c r="AD3" t="n">
-        <v>477278.8903181829</v>
+        <v>562719.0663948214</v>
       </c>
       <c r="AE3" t="n">
-        <v>653034.0337919176</v>
+        <v>769937.0520545149</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.617020116061127e-06</v>
+        <v>2.501729713053226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.69560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>590709.3821458392</v>
+        <v>696455.3404198708</v>
       </c>
     </row>
     <row r="4">
@@ -5729,28 +5729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.12653259602</v>
+        <v>563.5667086726585</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.1938153517924</v>
+        <v>771.0968336143897</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.7584757814031</v>
+        <v>697.5044340554348</v>
       </c>
       <c r="AD4" t="n">
-        <v>478126.53259602</v>
+        <v>563566.7086726584</v>
       </c>
       <c r="AE4" t="n">
-        <v>654193.8153517924</v>
+        <v>771096.8336143896</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.619748189589518e-06</v>
+        <v>2.505950379535714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>591758.4757814031</v>
+        <v>697504.4340554348</v>
       </c>
     </row>
   </sheetData>
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.8239319476045</v>
+        <v>912.1030731088352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1105.300342367339</v>
+        <v>1247.979663775158</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.8120289905734</v>
+        <v>1128.874236214915</v>
       </c>
       <c r="AD2" t="n">
-        <v>807823.9319476045</v>
+        <v>912103.0731088353</v>
       </c>
       <c r="AE2" t="n">
-        <v>1105300.342367339</v>
+        <v>1247979.663775158</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242004030542695e-06</v>
+        <v>1.877033200136636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.02546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>999812.0289905734</v>
+        <v>1128874.236214915</v>
       </c>
     </row>
     <row r="3">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.8941764644751</v>
+        <v>684.8958295502463</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.7509924161724</v>
+        <v>937.1046894621463</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.8512485785925</v>
+        <v>847.6687331345707</v>
       </c>
       <c r="AD3" t="n">
-        <v>588894.1764644751</v>
+        <v>684895.8295502462</v>
       </c>
       <c r="AE3" t="n">
-        <v>805750.9924161724</v>
+        <v>937104.6894621464</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493768657980745e-06</v>
+        <v>2.257523563050161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.47106481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>728851.2485785926</v>
+        <v>847668.7331345708</v>
       </c>
     </row>
     <row r="4">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.6446064736754</v>
+        <v>611.7101349022736</v>
       </c>
       <c r="AB4" t="n">
-        <v>716.4736521468941</v>
+        <v>836.9687933198144</v>
       </c>
       <c r="AC4" t="n">
-        <v>648.0944123630803</v>
+        <v>757.0896663784499</v>
       </c>
       <c r="AD4" t="n">
-        <v>523644.6064736753</v>
+        <v>611710.1349022735</v>
       </c>
       <c r="AE4" t="n">
-        <v>716473.6521468941</v>
+        <v>836968.7933198144</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.574964345244802e-06</v>
+        <v>2.380234115475624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.30787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>648094.4123630803</v>
+        <v>757089.6663784499</v>
       </c>
     </row>
     <row r="5">
@@ -6344,28 +6344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.7805514587099</v>
+        <v>608.8460798873081</v>
       </c>
       <c r="AB5" t="n">
-        <v>712.5549257222286</v>
+        <v>833.0500668951489</v>
       </c>
       <c r="AC5" t="n">
-        <v>644.5496836884178</v>
+        <v>753.5449377037874</v>
       </c>
       <c r="AD5" t="n">
-        <v>520780.5514587099</v>
+        <v>608846.0798873081</v>
       </c>
       <c r="AE5" t="n">
-        <v>712554.9257222286</v>
+        <v>833050.0668951489</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.579488104963799e-06</v>
+        <v>2.387070846253614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>644549.6836884178</v>
+        <v>753544.9377037873</v>
       </c>
     </row>
   </sheetData>
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.3068588355968</v>
+        <v>560.9272576267191</v>
       </c>
       <c r="AB2" t="n">
-        <v>643.4945927331225</v>
+        <v>767.4854202489735</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.0803719530057</v>
+        <v>694.2376889129634</v>
       </c>
       <c r="AD2" t="n">
-        <v>470306.8588355968</v>
+        <v>560927.2576267191</v>
       </c>
       <c r="AE2" t="n">
-        <v>643494.5927331225</v>
+        <v>767485.4202489734</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591074395711703e-06</v>
+        <v>2.514673974163847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.89930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>582080.3719530058</v>
+        <v>694237.6889129635</v>
       </c>
     </row>
     <row r="3">
@@ -6747,28 +6747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.5650861073614</v>
+        <v>535.6267627698935</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.2195165745791</v>
+        <v>732.8681670068077</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.1220749927503</v>
+        <v>662.92425773461</v>
       </c>
       <c r="AD3" t="n">
-        <v>452565.0861073614</v>
+        <v>535626.7627698935</v>
       </c>
       <c r="AE3" t="n">
-        <v>619219.5165745791</v>
+        <v>732868.1670068076</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.634770700841261e-06</v>
+        <v>2.583735459643456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>560122.0749927503</v>
+        <v>662924.25773461</v>
       </c>
     </row>
   </sheetData>
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1369.822009925776</v>
+        <v>1522.186615960558</v>
       </c>
       <c r="AB2" t="n">
-        <v>1874.250906262428</v>
+        <v>2082.722882091231</v>
       </c>
       <c r="AC2" t="n">
-        <v>1695.375030296409</v>
+        <v>1883.950733344368</v>
       </c>
       <c r="AD2" t="n">
-        <v>1369822.009925776</v>
+        <v>1522186.615960558</v>
       </c>
       <c r="AE2" t="n">
-        <v>1874250.906262428</v>
+        <v>2082722.882091231</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.171900431739914e-07</v>
+        <v>1.337158788266741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.96990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1695375.030296409</v>
+        <v>1883950.733344367</v>
       </c>
     </row>
     <row r="3">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>881.1314125937905</v>
+        <v>991.1251948749227</v>
       </c>
       <c r="AB3" t="n">
-        <v>1205.602871485246</v>
+        <v>1356.101216985487</v>
       </c>
       <c r="AC3" t="n">
-        <v>1090.541825504951</v>
+        <v>1226.676820136403</v>
       </c>
       <c r="AD3" t="n">
-        <v>881131.4125937906</v>
+        <v>991125.1948749227</v>
       </c>
       <c r="AE3" t="n">
-        <v>1205602.871485246</v>
+        <v>1356101.216985487</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22844778544513e-06</v>
+        <v>1.790937183040443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1090541.825504951</v>
+        <v>1226676.820136403</v>
       </c>
     </row>
     <row r="4">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>760.5869682776972</v>
+        <v>862.106567906389</v>
       </c>
       <c r="AB4" t="n">
-        <v>1040.668644726413</v>
+        <v>1179.572239667031</v>
       </c>
       <c r="AC4" t="n">
-        <v>941.3486898613393</v>
+        <v>1066.995520653245</v>
       </c>
       <c r="AD4" t="n">
-        <v>760586.9682776972</v>
+        <v>862106.567906389</v>
       </c>
       <c r="AE4" t="n">
-        <v>1040668.644726413</v>
+        <v>1179572.239667031</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348191293283049e-06</v>
+        <v>1.965509601303151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.11342592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>941348.6898613393</v>
+        <v>1066995.520653245</v>
       </c>
     </row>
     <row r="5">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>700.2726034039659</v>
+        <v>793.403361234789</v>
       </c>
       <c r="AB5" t="n">
-        <v>958.1438698241908</v>
+        <v>1085.569481327385</v>
       </c>
       <c r="AC5" t="n">
-        <v>866.6999636515365</v>
+        <v>981.9642536358351</v>
       </c>
       <c r="AD5" t="n">
-        <v>700272.6034039659</v>
+        <v>793403.361234789</v>
       </c>
       <c r="AE5" t="n">
-        <v>958143.8698241909</v>
+        <v>1085569.481327385</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409570609351047e-06</v>
+        <v>2.054993664621265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>866699.9636515365</v>
+        <v>981964.2536358351</v>
       </c>
     </row>
     <row r="6">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.3085760057678</v>
+        <v>746.3539929820192</v>
       </c>
       <c r="AB6" t="n">
-        <v>893.8856156313154</v>
+        <v>1021.194460012312</v>
       </c>
       <c r="AC6" t="n">
-        <v>808.574427051803</v>
+        <v>923.7330940041624</v>
       </c>
       <c r="AD6" t="n">
-        <v>653308.5760057678</v>
+        <v>746353.9929820192</v>
       </c>
       <c r="AE6" t="n">
-        <v>893885.6156313154</v>
+        <v>1021194.460012312</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451028568449608e-06</v>
+        <v>2.115434654757185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>808574.427051803</v>
+        <v>923733.0940041624</v>
       </c>
     </row>
     <row r="7">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>621.0177045774312</v>
+        <v>705.7596206103856</v>
       </c>
       <c r="AB7" t="n">
-        <v>849.7038207703591</v>
+        <v>965.6514488361288</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.6092806828377</v>
+        <v>873.4910298595287</v>
       </c>
       <c r="AD7" t="n">
-        <v>621017.7045774312</v>
+        <v>705759.6206103856</v>
       </c>
       <c r="AE7" t="n">
-        <v>849703.8207703591</v>
+        <v>965651.4488361288</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.47735706455246e-06</v>
+        <v>2.153818608233113e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.08796296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>768609.2806828377</v>
+        <v>873491.0298595286</v>
       </c>
     </row>
     <row r="8">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>602.5183553998643</v>
+        <v>695.6490237221361</v>
       </c>
       <c r="AB8" t="n">
-        <v>824.3921950919258</v>
+        <v>951.8176841255718</v>
       </c>
       <c r="AC8" t="n">
-        <v>745.7133610340643</v>
+        <v>860.9775402371363</v>
       </c>
       <c r="AD8" t="n">
-        <v>602518.3553998643</v>
+        <v>695649.0237221362</v>
       </c>
       <c r="AE8" t="n">
-        <v>824392.1950919258</v>
+        <v>951817.6841255717</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486456278952014e-06</v>
+        <v>2.167084228146062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.96064814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>745713.3610340643</v>
+        <v>860977.5402371363</v>
       </c>
     </row>
     <row r="9">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>604.6287911792929</v>
+        <v>697.7594595015648</v>
       </c>
       <c r="AB9" t="n">
-        <v>827.2797864311957</v>
+        <v>954.7052754648415</v>
       </c>
       <c r="AC9" t="n">
-        <v>748.3253647086742</v>
+        <v>863.5895439117462</v>
       </c>
       <c r="AD9" t="n">
-        <v>604628.7911792928</v>
+        <v>697759.4595015649</v>
       </c>
       <c r="AE9" t="n">
-        <v>827279.7864311957</v>
+        <v>954705.2754648415</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.485971705404108e-06</v>
+        <v>2.166377775014603e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.96643518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>748325.3647086743</v>
+        <v>863589.5439117462</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.4447409563805</v>
+        <v>522.5837438743345</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.0582168089123</v>
+        <v>715.0221331365211</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.4575729591041</v>
+        <v>646.7814242898374</v>
       </c>
       <c r="AD2" t="n">
-        <v>433444.7409563805</v>
+        <v>522583.7438743344</v>
       </c>
       <c r="AE2" t="n">
-        <v>593058.2168089123</v>
+        <v>715022.1331365211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628147720403065e-06</v>
+        <v>2.608675096204627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.90509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>536457.5729591041</v>
+        <v>646781.4242898375</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.5185485411078</v>
+        <v>524.6575514590617</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.8956918362699</v>
+        <v>717.8596081638785</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.0242433522716</v>
+        <v>649.3480946830052</v>
       </c>
       <c r="AD3" t="n">
-        <v>435518.5485411078</v>
+        <v>524657.5514590617</v>
       </c>
       <c r="AE3" t="n">
-        <v>595895.6918362698</v>
+        <v>717859.6081638786</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631498348923761e-06</v>
+        <v>2.614043590149642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.85300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>539024.2433522716</v>
+        <v>649348.0946830052</v>
       </c>
     </row>
   </sheetData>
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.688923123711</v>
+        <v>1153.249646566134</v>
       </c>
       <c r="AB2" t="n">
-        <v>1397.919858352005</v>
+        <v>1577.927044215418</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.504349063733</v>
+        <v>1427.331901750013</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021688.923123711</v>
+        <v>1153249.646566134</v>
       </c>
       <c r="AE2" t="n">
-        <v>1397919.858352005</v>
+        <v>1577927.044215418</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.087898715049841e-06</v>
+        <v>1.61535900620765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.77430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264504.349063733</v>
+        <v>1427331.901750013</v>
       </c>
     </row>
     <row r="3">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>711.3856105313716</v>
+        <v>810.1841643950467</v>
       </c>
       <c r="AB3" t="n">
-        <v>973.3491764471801</v>
+        <v>1108.529716528036</v>
       </c>
       <c r="AC3" t="n">
-        <v>880.4540971512098</v>
+        <v>1002.733196213828</v>
       </c>
       <c r="AD3" t="n">
-        <v>711385.6105313717</v>
+        <v>810184.1643950467</v>
       </c>
       <c r="AE3" t="n">
-        <v>973349.1764471801</v>
+        <v>1108529.716528036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366996373564814e-06</v>
+        <v>2.029775265788373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>880454.0971512098</v>
+        <v>1002733.196213828</v>
       </c>
     </row>
     <row r="4">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.4912610326843</v>
+        <v>715.9713507283656</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.824738071818</v>
+        <v>979.6235884932864</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.1460262278068</v>
+        <v>886.1296881178282</v>
       </c>
       <c r="AD4" t="n">
-        <v>625491.2610326842</v>
+        <v>715971.3507283656</v>
       </c>
       <c r="AE4" t="n">
-        <v>855824.738071818</v>
+        <v>979623.5884932864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471895894635223e-06</v>
+        <v>2.185534606031909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.00810185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>774146.0262278068</v>
+        <v>886129.6881178282</v>
       </c>
     </row>
     <row r="5">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>573.356776007843</v>
+        <v>663.7515248489528</v>
       </c>
       <c r="AB5" t="n">
-        <v>784.4920356496776</v>
+        <v>908.1741189489486</v>
       </c>
       <c r="AC5" t="n">
-        <v>709.621216808759</v>
+        <v>821.4992556668417</v>
       </c>
       <c r="AD5" t="n">
-        <v>573356.776007843</v>
+        <v>663751.5248489529</v>
       </c>
       <c r="AE5" t="n">
-        <v>784492.0356496776</v>
+        <v>908174.1189489486</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.525465180475341e-06</v>
+        <v>2.265076595686693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>709621.2168087589</v>
+        <v>821499.2556668416</v>
       </c>
     </row>
     <row r="6">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>559.8220970037441</v>
+        <v>642.1543147320242</v>
       </c>
       <c r="AB6" t="n">
-        <v>765.9732907283737</v>
+        <v>878.6238632653018</v>
       </c>
       <c r="AC6" t="n">
-        <v>692.8698749115225</v>
+        <v>794.7692349115978</v>
       </c>
       <c r="AD6" t="n">
-        <v>559822.0970037441</v>
+        <v>642154.3147320242</v>
       </c>
       <c r="AE6" t="n">
-        <v>765973.2907283737</v>
+        <v>878623.8632653018</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538955460399551e-06</v>
+        <v>2.285107546059528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.0474537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>692869.8749115225</v>
+        <v>794769.2349115978</v>
       </c>
     </row>
   </sheetData>
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1185.457438415453</v>
+        <v>1327.381360774304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1621.99516593115</v>
+        <v>1816.181737744088</v>
       </c>
       <c r="AC2" t="n">
-        <v>1467.194223779194</v>
+        <v>1642.84790172087</v>
       </c>
       <c r="AD2" t="n">
-        <v>1185457.438415453</v>
+        <v>1327381.360774304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1621995.16593115</v>
+        <v>1816181.737744088</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.991220734977386e-07</v>
+        <v>1.469151538719564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.76504629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>1467194.223779194</v>
+        <v>1642847.90172087</v>
       </c>
     </row>
     <row r="3">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>794.7631315724897</v>
+        <v>903.3383702993252</v>
       </c>
       <c r="AB3" t="n">
-        <v>1087.429979092261</v>
+        <v>1235.987410719788</v>
       </c>
       <c r="AC3" t="n">
-        <v>983.6471881052559</v>
+        <v>1118.026506959917</v>
       </c>
       <c r="AD3" t="n">
-        <v>794763.1315724896</v>
+        <v>903338.3702993252</v>
       </c>
       <c r="AE3" t="n">
-        <v>1087429.979092261</v>
+        <v>1235987.410719788</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.294849483076693e-06</v>
+        <v>1.904001684011098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>983647.1881052558</v>
+        <v>1118026.506959917</v>
       </c>
     </row>
     <row r="4">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.0532926744779</v>
+        <v>790.2700252796668</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.161358039935</v>
+        <v>1081.282312840561</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.0519231673916</v>
+        <v>978.0862464923141</v>
       </c>
       <c r="AD4" t="n">
-        <v>690053.2926744779</v>
+        <v>790270.0252796668</v>
       </c>
       <c r="AE4" t="n">
-        <v>944161.358039935</v>
+        <v>1081282.31284056</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406734482249739e-06</v>
+        <v>2.06852213957392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.56365740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>854051.9231673916</v>
+        <v>978086.2464923142</v>
       </c>
     </row>
     <row r="5">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>631.7613138798762</v>
+        <v>723.7048812179899</v>
       </c>
       <c r="AB5" t="n">
-        <v>864.4037009925553</v>
+        <v>990.2049460884764</v>
       </c>
       <c r="AC5" t="n">
-        <v>781.9062249680389</v>
+        <v>895.7011757951618</v>
       </c>
       <c r="AD5" t="n">
-        <v>631761.3138798762</v>
+        <v>723704.8812179898</v>
       </c>
       <c r="AE5" t="n">
-        <v>864403.7009925552</v>
+        <v>990204.9460884763</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467667930328785e-06</v>
+        <v>2.158121270029946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.6261574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>781906.224968039</v>
+        <v>895701.1757951619</v>
       </c>
     </row>
     <row r="6">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>599.1372210506753</v>
+        <v>690.9101961881968</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.7659779102457</v>
+        <v>945.3338112313201</v>
       </c>
       <c r="AC6" t="n">
-        <v>741.5286635272673</v>
+        <v>855.1124790717391</v>
       </c>
       <c r="AD6" t="n">
-        <v>599137.2210506753</v>
+        <v>690910.1961881968</v>
       </c>
       <c r="AE6" t="n">
-        <v>819765.9779102458</v>
+        <v>945333.81123132</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.50073981979023e-06</v>
+        <v>2.206751581159544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.15162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>741528.6635272673</v>
+        <v>855112.4790717391</v>
       </c>
     </row>
     <row r="7">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.3760657325222</v>
+        <v>671.2342922160642</v>
       </c>
       <c r="AB7" t="n">
-        <v>792.7278934033047</v>
+        <v>918.4123713770281</v>
       </c>
       <c r="AC7" t="n">
-        <v>717.0710558574787</v>
+        <v>830.7603836526629</v>
       </c>
       <c r="AD7" t="n">
-        <v>579376.0657325222</v>
+        <v>671234.2922160642</v>
       </c>
       <c r="AE7" t="n">
-        <v>792727.8934033047</v>
+        <v>918412.3713770281</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.511654091768385e-06</v>
+        <v>2.222800390305134e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.99537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>717071.0558574786</v>
+        <v>830760.3836526629</v>
       </c>
     </row>
     <row r="8">
@@ -9843,28 +9843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>580.0256007590039</v>
+        <v>671.883827242546</v>
       </c>
       <c r="AB8" t="n">
-        <v>793.6166158819999</v>
+        <v>919.3010938557235</v>
       </c>
       <c r="AC8" t="n">
-        <v>717.8749599101371</v>
+        <v>831.5642877053214</v>
       </c>
       <c r="AD8" t="n">
-        <v>580025.6007590039</v>
+        <v>671883.827242546</v>
       </c>
       <c r="AE8" t="n">
-        <v>793616.615882</v>
+        <v>919301.0938557235</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514176988808562e-06</v>
+        <v>2.226510165283511e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.96064814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>717874.9599101371</v>
+        <v>831564.2877053213</v>
       </c>
     </row>
   </sheetData>
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1579.617368908418</v>
+        <v>1734.008031312323</v>
       </c>
       <c r="AB2" t="n">
-        <v>2161.302171940496</v>
+        <v>2372.546287476831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1955.030526057145</v>
+        <v>2146.11379968967</v>
       </c>
       <c r="AD2" t="n">
-        <v>1579617.368908419</v>
+        <v>1734008.031312323</v>
       </c>
       <c r="AE2" t="n">
-        <v>2161302.171940496</v>
+        <v>2372546.287476831</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.440471044684387e-07</v>
+        <v>1.221144145075512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.2962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1955030.526057145</v>
+        <v>2146113.79968967</v>
       </c>
     </row>
     <row r="3">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>969.1091472115208</v>
+        <v>1080.58983357378</v>
       </c>
       <c r="AB3" t="n">
-        <v>1325.977889292947</v>
+        <v>1478.510682554564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.428420560483</v>
+        <v>1337.403698114331</v>
       </c>
       <c r="AD3" t="n">
-        <v>969109.1472115208</v>
+        <v>1080589.83357378</v>
       </c>
       <c r="AE3" t="n">
-        <v>1325977.889292947</v>
+        <v>1478510.682554564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167446738261571e-06</v>
+        <v>1.689029843913088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.24421296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199428.420560483</v>
+        <v>1337403.698114331</v>
       </c>
     </row>
     <row r="4">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>824.3804825497471</v>
+        <v>927.3644250496973</v>
       </c>
       <c r="AB4" t="n">
-        <v>1127.953745324652</v>
+        <v>1268.860918783975</v>
       </c>
       <c r="AC4" t="n">
-        <v>1020.303422963891</v>
+        <v>1147.762613552716</v>
       </c>
       <c r="AD4" t="n">
-        <v>824380.4825497471</v>
+        <v>927364.4250496973</v>
       </c>
       <c r="AE4" t="n">
-        <v>1127953.745324652</v>
+        <v>1268860.918783975</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.291904511882073e-06</v>
+        <v>1.869091929028023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.71527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1020303.422963891</v>
+        <v>1147762.613552716</v>
       </c>
     </row>
     <row r="5">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>757.1225309123819</v>
+        <v>860.0211325577604</v>
       </c>
       <c r="AB5" t="n">
-        <v>1035.928448682999</v>
+        <v>1176.718855020124</v>
       </c>
       <c r="AC5" t="n">
-        <v>937.0608914754018</v>
+        <v>1064.414459032288</v>
       </c>
       <c r="AD5" t="n">
-        <v>757122.5309123818</v>
+        <v>860021.1325577605</v>
       </c>
       <c r="AE5" t="n">
-        <v>1035928.448682999</v>
+        <v>1176718.855020124</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.358130234893239e-06</v>
+        <v>1.964905484314617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>937060.8914754018</v>
+        <v>1064414.459032288</v>
       </c>
     </row>
     <row r="6">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.063747103819</v>
+        <v>811.8770078946258</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.1723004722173</v>
+        <v>1110.845939687145</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.580417760524</v>
+        <v>1004.828362285471</v>
       </c>
       <c r="AD6" t="n">
-        <v>709063.7471038189</v>
+        <v>811877.0078946258</v>
       </c>
       <c r="AE6" t="n">
-        <v>970172.3004722174</v>
+        <v>1110845.939687145</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.401910149305895e-06</v>
+        <v>2.028245060831015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>877580.4177605241</v>
+        <v>1004828.362285471</v>
       </c>
     </row>
     <row r="7">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>676.7064681753125</v>
+        <v>770.9378232663413</v>
       </c>
       <c r="AB7" t="n">
-        <v>925.8996439398368</v>
+        <v>1054.831141169369</v>
       </c>
       <c r="AC7" t="n">
-        <v>837.53308143053</v>
+        <v>954.1595375209683</v>
       </c>
       <c r="AD7" t="n">
-        <v>676706.4681753125</v>
+        <v>770937.8232663414</v>
       </c>
       <c r="AE7" t="n">
-        <v>925899.6439398368</v>
+        <v>1054831.141169369</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.431714371572311e-06</v>
+        <v>2.071364990188611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.40046296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>837533.0814305301</v>
+        <v>954159.5375209684</v>
       </c>
     </row>
     <row r="8">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>654.5283354036447</v>
+        <v>740.3483769954876</v>
       </c>
       <c r="AB8" t="n">
-        <v>895.5545442514771</v>
+        <v>1012.977311270461</v>
       </c>
       <c r="AC8" t="n">
-        <v>810.0840754668126</v>
+        <v>916.3001784053931</v>
       </c>
       <c r="AD8" t="n">
-        <v>654528.3354036447</v>
+        <v>740348.3769954876</v>
       </c>
       <c r="AE8" t="n">
-        <v>895554.5442514771</v>
+        <v>1012977.311270461</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451301515868179e-06</v>
+        <v>2.099703132039963e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>810084.0754668126</v>
+        <v>916300.1784053931</v>
       </c>
     </row>
     <row r="9">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>629.1279705117159</v>
+        <v>723.4445769487653</v>
       </c>
       <c r="AB9" t="n">
-        <v>860.8006444213283</v>
+        <v>989.8487863035098</v>
       </c>
       <c r="AC9" t="n">
-        <v>778.6470390590482</v>
+        <v>895.3790074001988</v>
       </c>
       <c r="AD9" t="n">
-        <v>629127.970511716</v>
+        <v>723444.5769487653</v>
       </c>
       <c r="AE9" t="n">
-        <v>860800.6444213283</v>
+        <v>989848.7863035097</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.461889161433513e-06</v>
+        <v>2.115021046554206e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.95486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>778647.0390590482</v>
+        <v>895379.0074001988</v>
       </c>
     </row>
     <row r="10">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>629.1225632203186</v>
+        <v>723.4391696573679</v>
       </c>
       <c r="AB10" t="n">
-        <v>860.7932459266851</v>
+        <v>989.8413878088666</v>
       </c>
       <c r="AC10" t="n">
-        <v>778.6403466663502</v>
+        <v>895.3723150075009</v>
       </c>
       <c r="AD10" t="n">
-        <v>629122.5632203186</v>
+        <v>723439.1696573679</v>
       </c>
       <c r="AE10" t="n">
-        <v>860793.2459266852</v>
+        <v>989841.3878088666</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.463953752318754e-06</v>
+        <v>2.118008039884484e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.92592592592592</v>
       </c>
       <c r="AH10" t="n">
-        <v>778640.3466663501</v>
+        <v>895372.3150075009</v>
       </c>
     </row>
   </sheetData>
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.7829665325503</v>
+        <v>991.0494233213913</v>
       </c>
       <c r="AB2" t="n">
-        <v>1190.075426926151</v>
+        <v>1355.99754300314</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.496298461671</v>
+        <v>1226.583040653424</v>
       </c>
       <c r="AD2" t="n">
-        <v>869782.9665325503</v>
+        <v>991049.4233213912</v>
       </c>
       <c r="AE2" t="n">
-        <v>1190075.426926151</v>
+        <v>1355997.54300314</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.188603676815584e-06</v>
+        <v>1.784907853659169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.88194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076496.298461671</v>
+        <v>1226583.040653424</v>
       </c>
     </row>
     <row r="3">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.8966916904826</v>
+        <v>724.9610616342983</v>
       </c>
       <c r="AB3" t="n">
-        <v>859.1159544179288</v>
+        <v>991.9237075528382</v>
       </c>
       <c r="AC3" t="n">
-        <v>777.1231335050962</v>
+        <v>897.255901077662</v>
       </c>
       <c r="AD3" t="n">
-        <v>627896.6916904827</v>
+        <v>724961.0616342983</v>
       </c>
       <c r="AE3" t="n">
-        <v>859115.9544179288</v>
+        <v>991923.7075528383</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448671581625239e-06</v>
+        <v>2.175447824916096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.87615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>777123.1335050962</v>
+        <v>897255.901077662</v>
       </c>
     </row>
     <row r="4">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>552.4918532107885</v>
+        <v>641.3751625753846</v>
       </c>
       <c r="AB4" t="n">
-        <v>755.9437277833192</v>
+        <v>877.5577929108205</v>
       </c>
       <c r="AC4" t="n">
-        <v>683.7975193773641</v>
+        <v>793.804908815509</v>
       </c>
       <c r="AD4" t="n">
-        <v>552491.8532107885</v>
+        <v>641375.1625753846</v>
       </c>
       <c r="AE4" t="n">
-        <v>755943.7277833192</v>
+        <v>877557.7929108205</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543455193706273e-06</v>
+        <v>2.31778291684083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>683797.5193773641</v>
+        <v>793804.9088155089</v>
       </c>
     </row>
     <row r="5">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.6784148108541</v>
+        <v>624.5617241754502</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.9388396079771</v>
+        <v>854.5529047354785</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.9881854419133</v>
+        <v>772.9955748800581</v>
       </c>
       <c r="AD5" t="n">
-        <v>535678.414810854</v>
+        <v>624561.7241754502</v>
       </c>
       <c r="AE5" t="n">
-        <v>732938.8396079771</v>
+        <v>854552.9047354785</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56464548764584e-06</v>
+        <v>2.349604055216753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.18055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>662988.1854419133</v>
+        <v>772995.5748800582</v>
       </c>
     </row>
     <row r="6">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.6222601904736</v>
+        <v>626.5055695550697</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.5984946127784</v>
+        <v>857.2125597402796</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.3940067059056</v>
+        <v>775.4013961440504</v>
       </c>
       <c r="AD6" t="n">
-        <v>537622.2601904736</v>
+        <v>626505.5695550697</v>
       </c>
       <c r="AE6" t="n">
-        <v>735598.4946127784</v>
+        <v>857212.5597402797</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.564130048063526e-06</v>
+        <v>2.348830027526528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.19212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>665394.0067059055</v>
+        <v>775401.3961440504</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.3163107773097</v>
+        <v>772.3022144737631</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.1563486740413</v>
+        <v>1056.697961412055</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.6242339936101</v>
+        <v>955.8481910597915</v>
       </c>
       <c r="AD2" t="n">
-        <v>670316.3107773097</v>
+        <v>772302.2144737631</v>
       </c>
       <c r="AE2" t="n">
-        <v>917156.3486740413</v>
+        <v>1056697.961412055</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364485534635875e-06</v>
+        <v>2.092775252643918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.30092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>829624.2339936101</v>
+        <v>955848.1910597915</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.1914147086494</v>
+        <v>599.3190369044714</v>
       </c>
       <c r="AB3" t="n">
-        <v>691.2251810766211</v>
+        <v>820.014746382559</v>
       </c>
       <c r="AC3" t="n">
-        <v>625.2556199353023</v>
+        <v>741.7536898857315</v>
       </c>
       <c r="AD3" t="n">
-        <v>505191.4147086494</v>
+        <v>599319.0369044715</v>
       </c>
       <c r="AE3" t="n">
-        <v>691225.1810766211</v>
+        <v>820014.746382559</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585158496887453e-06</v>
+        <v>2.431231691063376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.78240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>625255.6199353023</v>
+        <v>741753.6898857316</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.1039546497191</v>
+        <v>579.5440665626039</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.6865849628906</v>
+        <v>792.9577595506958</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.2954442226007</v>
+        <v>717.2789839023822</v>
       </c>
       <c r="AD4" t="n">
-        <v>493103.9546497191</v>
+        <v>579544.0665626039</v>
       </c>
       <c r="AE4" t="n">
-        <v>674686.5849628906</v>
+        <v>792957.7595506958</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605442034915444e-06</v>
+        <v>2.462341501569626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.50462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>610295.4442226008</v>
+        <v>717278.9839023822</v>
       </c>
     </row>
   </sheetData>
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.8842477304831</v>
+        <v>626.90336881158</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.8522251724349</v>
+        <v>857.7568462327018</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.0052759630262</v>
+        <v>775.8937366975467</v>
       </c>
       <c r="AD2" t="n">
-        <v>534884.2477304832</v>
+        <v>626903.36881158</v>
       </c>
       <c r="AE2" t="n">
-        <v>731852.2251724349</v>
+        <v>857756.8462327018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.512953472040948e-06</v>
+        <v>2.363959956503684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.60532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>662005.2759630262</v>
+        <v>775893.7366975467</v>
       </c>
     </row>
     <row r="3">
@@ -21874,28 +21874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.2989726199845</v>
+        <v>553.1474119919383</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.169605413029</v>
+        <v>756.8406922289005</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.9316641245138</v>
+        <v>684.6088787951564</v>
       </c>
       <c r="AD3" t="n">
-        <v>461298.9726199845</v>
+        <v>553147.4119919383</v>
       </c>
       <c r="AE3" t="n">
-        <v>631169.605413029</v>
+        <v>756840.6922289005</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627986318830161e-06</v>
+        <v>2.543696510546876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.9386574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>570931.6641245137</v>
+        <v>684608.8787951565</v>
       </c>
     </row>
   </sheetData>
@@ -22171,28 +22171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.8048254928947</v>
+        <v>515.4269738528926</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.7637268380566</v>
+        <v>705.2299246587744</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.8136448380977</v>
+        <v>637.923770445756</v>
       </c>
       <c r="AD2" t="n">
-        <v>420804.8254928947</v>
+        <v>515426.9738528926</v>
       </c>
       <c r="AE2" t="n">
-        <v>575763.7268380567</v>
+        <v>705229.9246587744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602731075537394e-06</v>
+        <v>2.611932581573973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.91782407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>520813.6448380977</v>
+        <v>637923.7704457559</v>
       </c>
     </row>
   </sheetData>
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1101.41807013009</v>
+        <v>1234.087859503058</v>
       </c>
       <c r="AB2" t="n">
-        <v>1507.008794687854</v>
+        <v>1688.533453485973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1363.181990422972</v>
+        <v>1527.382190556857</v>
       </c>
       <c r="AD2" t="n">
-        <v>1101418.07013009</v>
+        <v>1234087.859503058</v>
       </c>
       <c r="AE2" t="n">
-        <v>1507008.794687854</v>
+        <v>1688533.453485973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042442834656133e-06</v>
+        <v>1.540085033989431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.75231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>1363181.990422972</v>
+        <v>1527382.190556857</v>
       </c>
     </row>
     <row r="3">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>755.6842103239695</v>
+        <v>855.1653066486034</v>
       </c>
       <c r="AB3" t="n">
-        <v>1033.960474999707</v>
+        <v>1170.074899787295</v>
       </c>
       <c r="AC3" t="n">
-        <v>935.2807384383749</v>
+        <v>1058.404593562031</v>
       </c>
       <c r="AD3" t="n">
-        <v>755684.2103239695</v>
+        <v>855165.3066486034</v>
       </c>
       <c r="AE3" t="n">
-        <v>1033960.474999707</v>
+        <v>1170074.899787295</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.332204164593229e-06</v>
+        <v>1.968172860802689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>935280.7384383749</v>
+        <v>1058404.593562031</v>
       </c>
     </row>
     <row r="4">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>657.483409674698</v>
+        <v>748.6673103601107</v>
       </c>
       <c r="AB4" t="n">
-        <v>899.5978072378084</v>
+        <v>1024.359642905376</v>
       </c>
       <c r="AC4" t="n">
-        <v>813.7414551084835</v>
+        <v>926.596196284275</v>
       </c>
       <c r="AD4" t="n">
-        <v>657483.409674698</v>
+        <v>748667.3103601107</v>
       </c>
       <c r="AE4" t="n">
-        <v>899597.8072378084</v>
+        <v>1024359.642905376</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.12595403650446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>813741.4551084834</v>
+        <v>926596.196284275</v>
       </c>
     </row>
     <row r="5">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.9653959720023</v>
+        <v>692.0639558028432</v>
       </c>
       <c r="AB5" t="n">
-        <v>822.2673674909905</v>
+        <v>946.9124360363611</v>
       </c>
       <c r="AC5" t="n">
-        <v>743.7913239971481</v>
+        <v>856.5404421410009</v>
       </c>
       <c r="AD5" t="n">
-        <v>600965.3959720023</v>
+        <v>692063.9558028432</v>
       </c>
       <c r="AE5" t="n">
-        <v>822267.3674909906</v>
+        <v>946912.4360363611</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.497275616172765e-06</v>
+        <v>2.212046254781567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.41203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>743791.3239971481</v>
+        <v>856540.4421410009</v>
       </c>
     </row>
     <row r="6">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>573.0757334052075</v>
+        <v>656.0477793059704</v>
       </c>
       <c r="AB6" t="n">
-        <v>784.1075007620271</v>
+        <v>897.6335144317732</v>
       </c>
       <c r="AC6" t="n">
-        <v>709.2733813910878</v>
+        <v>811.9646316509541</v>
       </c>
       <c r="AD6" t="n">
-        <v>573075.7334052075</v>
+        <v>656047.7793059704</v>
       </c>
       <c r="AE6" t="n">
-        <v>784107.5007620271</v>
+        <v>897633.5144317732</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524141271882857e-06</v>
+        <v>2.251737058835176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.0300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>709273.3813910878</v>
+        <v>811964.631650954</v>
       </c>
     </row>
     <row r="7">
@@ -22998,28 +22998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>573.2008779625173</v>
+        <v>656.1729238632804</v>
       </c>
       <c r="AB7" t="n">
-        <v>784.2787290663267</v>
+        <v>897.804742736073</v>
       </c>
       <c r="AC7" t="n">
-        <v>709.4282679063455</v>
+        <v>812.1195181662119</v>
       </c>
       <c r="AD7" t="n">
-        <v>573200.8779625173</v>
+        <v>656172.9238632804</v>
       </c>
       <c r="AE7" t="n">
-        <v>784278.7290663267</v>
+        <v>897804.742736073</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526190816751462e-06</v>
+        <v>2.254765017082565e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.00115740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>709428.2679063454</v>
+        <v>812119.5181662119</v>
       </c>
     </row>
   </sheetData>
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1475.874340255413</v>
+        <v>1629.22543918754</v>
       </c>
       <c r="AB2" t="n">
-        <v>2019.356383318045</v>
+        <v>2229.178122249991</v>
       </c>
       <c r="AC2" t="n">
-        <v>1826.631844278655</v>
+        <v>2016.428490933595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1475874.340255413</v>
+        <v>1629225.43918754</v>
       </c>
       <c r="AE2" t="n">
-        <v>2019356.383318045</v>
+        <v>2229178.122249991</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800522899122918e-07</v>
+        <v>1.277984667543817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.09837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1826631.844278655</v>
+        <v>2016428.490933595</v>
       </c>
     </row>
     <row r="3">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.2216768390922</v>
+        <v>1038.456754899842</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.719651449527</v>
+        <v>1420.862345532637</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.684653135801</v>
+        <v>1285.257237467828</v>
       </c>
       <c r="AD3" t="n">
-        <v>919221.6768390922</v>
+        <v>1038456.754899842</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257719.651449527</v>
+        <v>1420862.345532637</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.198028361423636e-06</v>
+        <v>1.739739666303963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.78703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137684.653135801</v>
+        <v>1285257.237467828</v>
       </c>
     </row>
     <row r="4">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>793.2942209217767</v>
+        <v>895.4714228096642</v>
       </c>
       <c r="AB4" t="n">
-        <v>1085.420150736191</v>
+        <v>1225.223506099205</v>
       </c>
       <c r="AC4" t="n">
-        <v>981.8291749466777</v>
+        <v>1108.289894289088</v>
       </c>
       <c r="AD4" t="n">
-        <v>793294.2209217767</v>
+        <v>895471.4228096642</v>
       </c>
       <c r="AE4" t="n">
-        <v>1085420.150736191</v>
+        <v>1225223.506099205</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.318610524516489e-06</v>
+        <v>1.914845347384904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.42592592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>981829.1749466776</v>
+        <v>1108289.894289088</v>
       </c>
     </row>
     <row r="5">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.0429588064421</v>
+        <v>819.7765187081947</v>
       </c>
       <c r="AB5" t="n">
-        <v>993.4040069937001</v>
+        <v>1121.654398884091</v>
       </c>
       <c r="AC5" t="n">
-        <v>898.5949228175012</v>
+        <v>1014.605277306428</v>
       </c>
       <c r="AD5" t="n">
-        <v>726042.9588064421</v>
+        <v>819776.5187081946</v>
       </c>
       <c r="AE5" t="n">
-        <v>993404.0069937002</v>
+        <v>1121654.398884091</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386828321963441e-06</v>
+        <v>2.013909119151811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>898594.9228175012</v>
+        <v>1014605.277306428</v>
       </c>
     </row>
     <row r="6">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.235593526148</v>
+        <v>775.054404773921</v>
       </c>
       <c r="AB6" t="n">
-        <v>932.0965930557584</v>
+        <v>1060.463629598798</v>
       </c>
       <c r="AC6" t="n">
-        <v>843.1386024203007</v>
+        <v>959.2544691599401</v>
       </c>
       <c r="AD6" t="n">
-        <v>681235.593526148</v>
+        <v>775054.404773921</v>
       </c>
       <c r="AE6" t="n">
-        <v>932096.5930557584</v>
+        <v>1060463.629598798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425901426604419e-06</v>
+        <v>2.070649871055861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>843138.6024203007</v>
+        <v>959254.46915994</v>
       </c>
     </row>
     <row r="7">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>651.999451883327</v>
+        <v>745.6476709305078</v>
       </c>
       <c r="AB7" t="n">
-        <v>892.0944142525115</v>
+        <v>1020.228039020704</v>
       </c>
       <c r="AC7" t="n">
-        <v>806.9541754186251</v>
+        <v>922.8589068756135</v>
       </c>
       <c r="AD7" t="n">
-        <v>651999.451883327</v>
+        <v>745647.6709305078</v>
       </c>
       <c r="AE7" t="n">
-        <v>892094.4142525115</v>
+        <v>1020228.039020704</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.454138683920098e-06</v>
+        <v>2.111655141216029e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.24421296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>806954.1754186251</v>
+        <v>922858.9068756135</v>
       </c>
     </row>
     <row r="8">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>627.9098510643428</v>
+        <v>713.1997689799603</v>
       </c>
       <c r="AB8" t="n">
-        <v>859.1339596537948</v>
+        <v>975.8313880715613</v>
       </c>
       <c r="AC8" t="n">
-        <v>777.1394203465215</v>
+        <v>882.6994099819658</v>
       </c>
       <c r="AD8" t="n">
-        <v>627909.8510643428</v>
+        <v>713199.7689799602</v>
       </c>
       <c r="AE8" t="n">
-        <v>859133.9596537948</v>
+        <v>975831.3880715612</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470045494279403e-06</v>
+        <v>2.134754518357295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.01273148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>777139.4203465215</v>
+        <v>882699.4099819658</v>
       </c>
     </row>
     <row r="9">
@@ -24037,28 +24037,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>616.6130714076494</v>
+        <v>710.3465418008508</v>
       </c>
       <c r="AB9" t="n">
-        <v>843.6772073487625</v>
+        <v>971.9274767696046</v>
       </c>
       <c r="AC9" t="n">
-        <v>763.1578387877933</v>
+        <v>879.1680824954938</v>
       </c>
       <c r="AD9" t="n">
-        <v>616613.0714076494</v>
+        <v>710346.5418008508</v>
       </c>
       <c r="AE9" t="n">
-        <v>843677.2073487625</v>
+        <v>971927.4767696046</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.474636050289135e-06</v>
+        <v>2.141420781559137e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.94907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>763157.8387877933</v>
+        <v>879168.0824954938</v>
       </c>
     </row>
   </sheetData>
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.5614722948276</v>
+        <v>511.9798525622014</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.0625161395894</v>
+        <v>700.5134212325926</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.274795301028</v>
+        <v>633.6574034869147</v>
       </c>
       <c r="AD2" t="n">
-        <v>419561.4722948276</v>
+        <v>511979.8525622014</v>
       </c>
       <c r="AE2" t="n">
-        <v>574062.5161395895</v>
+        <v>700513.4212325925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.516556351203001e-06</v>
+        <v>2.528009082481164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.17476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>519274.7953010281</v>
+        <v>633657.4034869147</v>
       </c>
     </row>
   </sheetData>
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.039921189089</v>
+        <v>842.2077025286746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.18702431115</v>
+        <v>1152.34573418126</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.6807539207956</v>
+        <v>1042.367474638395</v>
       </c>
       <c r="AD2" t="n">
-        <v>739039.921189089</v>
+        <v>842207.7025286746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011187.02431115</v>
+        <v>1152345.73418126</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>1.97835415191658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.16898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>914680.7539207956</v>
+        <v>1042367.474638395</v>
       </c>
     </row>
     <row r="3">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.958671540264</v>
+        <v>637.241370928218</v>
       </c>
       <c r="AB3" t="n">
-        <v>752.4777168656196</v>
+        <v>871.9017568091506</v>
       </c>
       <c r="AC3" t="n">
-        <v>680.6622996770728</v>
+        <v>788.6886768610859</v>
       </c>
       <c r="AD3" t="n">
-        <v>549958.671540264</v>
+        <v>637241.370928218</v>
       </c>
       <c r="AE3" t="n">
-        <v>752477.7168656196</v>
+        <v>871901.7568091506</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539361373019059e-06</v>
+        <v>2.342764266820534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>680662.2996770728</v>
+        <v>788688.6768610859</v>
       </c>
     </row>
     <row r="4">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.2833282697796</v>
+        <v>592.4806868031621</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.3509412658996</v>
+        <v>810.658214087233</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.3693777486217</v>
+        <v>733.2901319006961</v>
       </c>
       <c r="AD4" t="n">
-        <v>505283.3282697796</v>
+        <v>592480.6868031621</v>
       </c>
       <c r="AE4" t="n">
-        <v>691350.9412658996</v>
+        <v>810658.2140872329</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595033521968803e-06</v>
+        <v>2.427492078952634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.33101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>625369.3777486216</v>
+        <v>733290.1319006961</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.5324125712973</v>
+        <v>1067.940389012193</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.71916082607</v>
+        <v>1461.203154451293</v>
       </c>
       <c r="AC2" t="n">
-        <v>1170.248419863075</v>
+        <v>1321.747976201968</v>
       </c>
       <c r="AD2" t="n">
-        <v>945532.4125712973</v>
+        <v>1067940.389012193</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293719.16082607</v>
+        <v>1461203.154451293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135682102483713e-06</v>
+        <v>1.695471955806589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.8425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1170248.419863075</v>
+        <v>1321747.976201969</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>672.812655284178</v>
+        <v>770.6367169199602</v>
       </c>
       <c r="AB3" t="n">
-        <v>920.5719573592856</v>
+        <v>1054.419154182376</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.7138617797715</v>
+        <v>953.7868699937866</v>
       </c>
       <c r="AD3" t="n">
-        <v>672812.6552841781</v>
+        <v>770636.7169199602</v>
       </c>
       <c r="AE3" t="n">
-        <v>920571.9573592857</v>
+        <v>1054419.154182376</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407419444822328e-06</v>
+        <v>2.101151540148848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.27546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>832713.8617797715</v>
+        <v>953786.8699937866</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.8357489745682</v>
+        <v>674.6641816579113</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.1980728792972</v>
+        <v>923.1052974274061</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.8282918887454</v>
+        <v>835.0054234273557</v>
       </c>
       <c r="AD4" t="n">
-        <v>584835.7489745682</v>
+        <v>674664.1816579113</v>
       </c>
       <c r="AE4" t="n">
-        <v>800198.0728792972</v>
+        <v>923105.2974274061</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.507035716956459e-06</v>
+        <v>2.249869738116433e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.73611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>723828.2918887454</v>
+        <v>835005.4234273557</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>549.3864856114334</v>
+        <v>639.0443260941843</v>
       </c>
       <c r="AB5" t="n">
-        <v>751.694826834732</v>
+        <v>874.3686396079939</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.95412757194</v>
+        <v>790.9201238278995</v>
       </c>
       <c r="AD5" t="n">
-        <v>549386.4856114334</v>
+        <v>639044.3260941843</v>
       </c>
       <c r="AE5" t="n">
-        <v>751694.826834732</v>
+        <v>874368.6396079939</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549655633386573e-06</v>
+        <v>2.313497467133247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.13425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>679954.1275719401</v>
+        <v>790920.1238278995</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>547.2459444882912</v>
+        <v>628.9082455271541</v>
       </c>
       <c r="AB6" t="n">
-        <v>748.7660440360393</v>
+        <v>860.5000070038685</v>
       </c>
       <c r="AC6" t="n">
-        <v>677.3048636929822</v>
+        <v>778.3750940547635</v>
       </c>
       <c r="AD6" t="n">
-        <v>547245.9444882913</v>
+        <v>628908.2455271541</v>
       </c>
       <c r="AE6" t="n">
-        <v>748766.0440360393</v>
+        <v>860500.0070038685</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.553730844519333e-06</v>
+        <v>2.319581393413739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.08217592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>677304.8636929821</v>
+        <v>778375.0940547636</v>
       </c>
     </row>
   </sheetData>
